--- a/3.5 Cost Estimation/Innovatest_Cost_Check_Spreadsheet.xlsx
+++ b/3.5 Cost Estimation/Innovatest_Cost_Check_Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\HSRW\Semester 5\Group Project\Group-Project_WS2526\3.5 Cost Estimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FFE92B-80CF-461A-8D50-19BDC4EA8682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE125151-748E-46ED-86A2-1647D6550E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Direct_Materials" sheetId="1" r:id="rId1"/>
@@ -253,10 +253,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="0.0000000"/>
-    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -344,62 +344,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -907,7 +899,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -923,7 +915,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="1">
-        <v>4284</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -940,16 +932,16 @@
       </c>
       <c r="B3" s="1">
         <f>B2*B1</f>
-        <v>85680</v>
+        <v>75600</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <f>B3/150</f>
-        <v>571.20000000000005</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +954,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="E2" sqref="E2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,391 +969,391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>800</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.2</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <f>B2*C2</f>
         <v>160</v>
       </c>
-      <c r="E2" s="22">
-        <f>D2/(K2/60)</f>
-        <v>0.15392015392015387</v>
-      </c>
-      <c r="F2" s="16">
+      <c r="E2" s="20">
+        <f>D2/2016</f>
+        <v>7.9365079365079361E-2</v>
+      </c>
+      <c r="F2" s="15">
         <v>6.7</v>
       </c>
-      <c r="G2" s="24">
-        <f>E2*F2</f>
-        <v>1.0312650312650309</v>
-      </c>
-      <c r="K2" s="14">
+      <c r="G2" s="22">
+        <f t="shared" ref="G2:G13" si="0">E2*F2</f>
+        <v>0.53174603174603174</v>
+      </c>
+      <c r="K2" s="13">
         <v>62370.000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>70000</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>0.1</v>
       </c>
-      <c r="D3" s="14">
-        <f t="shared" ref="D3:D13" si="0">B3*C3</f>
+      <c r="D3" s="13">
+        <f t="shared" ref="D3:D13" si="1">B3*C3</f>
         <v>7000</v>
       </c>
-      <c r="E3" s="22">
-        <f t="shared" ref="E3:E13" si="1">D3/(K3/60)</f>
-        <v>5.2910052910052912</v>
-      </c>
-      <c r="F3" s="24">
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E13" si="2">D3/2016</f>
+        <v>3.4722222222222223</v>
+      </c>
+      <c r="F3" s="22">
         <v>2.7166666666666668</v>
       </c>
-      <c r="G3" s="24">
-        <f>E3*F3</f>
-        <v>14.373897707231041</v>
-      </c>
-      <c r="K3" s="14">
+      <c r="G3" s="22">
+        <f t="shared" si="0"/>
+        <v>9.4328703703703702</v>
+      </c>
+      <c r="K3" s="13">
         <v>79380</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>50000</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>0.1</v>
       </c>
-      <c r="D4" s="14">
-        <f t="shared" si="0"/>
+      <c r="D4" s="13">
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
+        <f t="shared" si="2"/>
+        <v>2.4801587301587302</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2.2166666666666668</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="0"/>
+        <v>5.497685185185186</v>
+      </c>
+      <c r="K4" s="13">
+        <v>73710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="16">
+        <v>9000</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>4.0700040700040701</v>
-      </c>
-      <c r="F4" s="24">
-        <v>2.2166666666666668</v>
-      </c>
-      <c r="G4" s="24">
-        <f>E4*F4</f>
-        <v>9.0218423551756892</v>
-      </c>
-      <c r="K4" s="14">
-        <v>73710</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="17">
-        <v>9000</v>
-      </c>
-      <c r="C5" s="18">
+        <v>900</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" si="2"/>
+        <v>0.44642857142857145</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.70684523809523814</v>
+      </c>
+      <c r="K5" s="13">
+        <v>79380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13">
+        <v>100000</v>
+      </c>
+      <c r="C6" s="17">
         <v>0.1</v>
       </c>
-      <c r="D5" s="14">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="D6" s="13">
         <f t="shared" si="1"/>
-        <v>0.68027210884353739</v>
-      </c>
-      <c r="F5" s="24">
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="G5" s="23">
-        <f>E5*F5</f>
-        <v>1.0770975056689343</v>
-      </c>
-      <c r="K5" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="2"/>
+        <v>4.9603174603174605</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="0"/>
+        <v>1.4054232804232805</v>
+      </c>
+      <c r="K6" s="13">
+        <v>102060</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13">
+        <v>150</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="2"/>
+        <v>7.4404761904761901E-3</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="G7" s="19">
+        <f t="shared" si="0"/>
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="K7" s="13">
+        <v>68040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="13">
+        <v>30</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="2"/>
+        <v>1.488095238095238E-3</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>3.9682539682539677E-4</v>
+      </c>
+      <c r="K8" s="13">
+        <v>56700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="13">
+        <v>40000</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="2"/>
+        <v>1.9841269841269842</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="0"/>
+        <v>0.82671957671957674</v>
+      </c>
+      <c r="K9" s="13">
         <v>79380</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="14">
-        <v>100000</v>
-      </c>
-      <c r="C6" s="18">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13">
+        <v>500</v>
+      </c>
+      <c r="C10" s="17">
         <v>0.1</v>
       </c>
-      <c r="D6" s="14">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="D10" s="13">
         <f t="shared" si="1"/>
-        <v>5.8788947677836569</v>
-      </c>
-      <c r="F6" s="24">
-        <v>0.28333333333333333</v>
-      </c>
-      <c r="G6" s="24">
-        <f>E6*F6</f>
-        <v>1.6656868508720362</v>
-      </c>
-      <c r="K6" s="14">
-        <v>102060</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="14">
-        <v>150</v>
-      </c>
-      <c r="C7" s="18">
+        <v>50</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="2"/>
+        <v>2.48015873015873E-2</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1.2833333333333334</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
+        <v>3.1828703703703706E-2</v>
+      </c>
+      <c r="K10" s="13">
+        <v>56700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="13">
+        <v>3500</v>
+      </c>
+      <c r="C11" s="17">
         <v>0.1</v>
       </c>
-      <c r="D7" s="14">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E7" s="22">
-        <f t="shared" si="1"/>
-        <v>1.3227513227513227E-2</v>
-      </c>
-      <c r="F7" s="24">
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="G7" s="21">
-        <f>E7*F7</f>
-        <v>3.0864197530864196E-3</v>
-      </c>
-      <c r="K7" s="14">
-        <v>68040</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="14">
-        <v>30</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E8" s="22">
-        <f t="shared" si="1"/>
-        <v>3.1746031746031746E-3</v>
-      </c>
-      <c r="F8" s="24">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G8" s="20">
-        <f>E8*F8</f>
-        <v>8.465608465608466E-4</v>
-      </c>
-      <c r="K8" s="14">
-        <v>56700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="14">
-        <v>40000</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="14">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="E9" s="22">
-        <f t="shared" si="1"/>
-        <v>3.0234315948601664</v>
-      </c>
-      <c r="F9" s="24">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G9" s="23">
-        <f>E9*F9</f>
-        <v>1.2597631645250693</v>
-      </c>
-      <c r="K9" s="14">
-        <v>79380</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="14">
-        <v>500</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="14">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E10" s="22">
-        <f t="shared" si="1"/>
-        <v>5.2910052910052907E-2</v>
-      </c>
-      <c r="F10" s="24">
-        <v>1.2833333333333334</v>
-      </c>
-      <c r="G10" s="22">
-        <f>E10*F10</f>
-        <v>6.7901234567901231E-2</v>
-      </c>
-      <c r="K10" s="14">
-        <v>56700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="14">
-        <v>3500</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <f>B11*C11</f>
         <v>350</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
+        <f t="shared" si="2"/>
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="G11" s="19">
+        <f t="shared" si="0"/>
+        <v>3.1828703703703699E-2</v>
+      </c>
+      <c r="K11" s="13">
+        <v>85050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13">
+        <v>360</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="13">
         <f t="shared" si="1"/>
-        <v>0.24691358024691357</v>
-      </c>
-      <c r="F11" s="24">
-        <v>0.18333333333333332</v>
-      </c>
-      <c r="G11" s="21">
-        <f>E11*F11</f>
-        <v>4.5267489711934152E-2</v>
-      </c>
-      <c r="K11" s="14">
-        <v>85050</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="14">
-        <v>360</v>
-      </c>
-      <c r="C12" s="18">
+        <v>18</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="2"/>
+        <v>8.9285714285714281E-3</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.34166666666666667</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="0"/>
+        <v>3.0505952380952381E-3</v>
+      </c>
+      <c r="K12" s="13">
+        <v>96390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="13">
+        <v>200</v>
+      </c>
+      <c r="C13" s="17">
         <v>0.05</v>
       </c>
-      <c r="D12" s="14">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D13" s="13">
         <f t="shared" si="1"/>
-        <v>1.1204481792717087E-2</v>
-      </c>
-      <c r="F12" s="24">
-        <v>0.34166666666666667</v>
-      </c>
-      <c r="G12" s="21">
-        <f>E12*F12</f>
-        <v>3.8281979458450049E-3</v>
-      </c>
-      <c r="K12" s="14">
-        <v>96390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="14">
-        <v>200</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="14">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E13" s="22">
-        <f t="shared" si="1"/>
-        <v>1.5117157974300832E-2</v>
-      </c>
-      <c r="F13" s="24">
+      <c r="E13" s="20">
+        <f t="shared" si="2"/>
+        <v>4.96031746031746E-3</v>
+      </c>
+      <c r="F13" s="22">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G13" s="21">
-        <f>E13*F13</f>
-        <v>6.2988158226253465E-3</v>
-      </c>
-      <c r="K13" s="14">
+      <c r="G13" s="19">
+        <f t="shared" si="0"/>
+        <v>2.0667989417989417E-3</v>
+      </c>
+      <c r="K13" s="13">
         <v>39690</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="24">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="22">
         <f>SUM(G2:G13)</f>
-        <v>28.556781333385754</v>
+        <v>18.472197420634917</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A847A12-564C-4D89-9C7C-6B7C6EE26E83}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
@@ -1387,246 +1379,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="23">
         <v>0.15</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>0.04</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="22">
         <v>6.7</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="25">
         <f>B2*C2*D2</f>
         <v>4.02E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="23">
         <v>8</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="23">
         <v>2.1</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="22">
         <v>2.7166666666666668</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="25">
         <f t="shared" ref="E3:E13" si="0">B3*C3*D3</f>
         <v>45.64</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="23">
         <v>2.7</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="23">
         <v>2</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>2.2166666666666668</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="25">
         <f t="shared" si="0"/>
         <v>11.97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="23">
         <v>2</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <v>1.5833333333333333</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="25">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="23">
         <v>10</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="23">
         <v>0.8</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <v>0.28333333333333333</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="25">
         <f t="shared" si="0"/>
         <v>2.2666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="23">
         <v>0.05</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="23">
         <v>0.02</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <v>0.23333333333333334</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="24">
         <f t="shared" si="0"/>
         <v>2.3333333333333333E-4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="23">
         <v>0</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="23">
         <v>0</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="22">
         <v>0.26666666666666666</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="23">
         <v>4.5</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="23">
         <v>1.17</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="25">
         <f t="shared" si="0"/>
         <v>2.1937500000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="23">
         <v>2.5</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="23">
         <v>0.65</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>1.2833333333333334</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="25">
         <f t="shared" si="0"/>
         <v>2.0854166666666667</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="23">
         <v>0.2</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="23">
         <v>0.05</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>0.18333333333333332</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="24">
         <f t="shared" si="0"/>
         <v>1.8333333333333335E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="23">
         <v>1.2</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="23">
         <v>0.31</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <v>0.34166666666666667</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="25">
         <f t="shared" si="0"/>
         <v>0.12709999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="23">
         <v>0.02</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="22">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="24">
         <f t="shared" si="0"/>
         <v>5.8333333333333349E-4</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="28">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="25">
         <f>SUM(E2:E13)</f>
         <v>67.492449999999991</v>
       </c>
@@ -1661,7 +1653,7 @@
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.15</v>
       </c>
       <c r="C2">
@@ -1690,7 +1682,7 @@
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <f>B4/150</f>
         <v>64.400000000000006</v>
       </c>
@@ -1704,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1715,11 +1707,11 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1745,46 +1737,46 @@
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.05</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <f>B4*(B2+B3)</f>
         <v>158.84700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <f>(B2+B3)*(1+B4)</f>
         <v>3335.7870000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="9">
         <f>Labor!B4</f>
-        <v>571.20000000000005</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <f>Machine_Dep!G14</f>
-        <v>28.556781333385754</v>
+        <v>18.472197420634917</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <f>Utility!E14</f>
         <v>67.492449999999991</v>
       </c>
@@ -1793,108 +1785,108 @@
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <f>Rent!B5</f>
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <f>B6+B7+B8+B9</f>
-        <v>731.64923133338573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+        <v>654.36464742063481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="7" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="27">
         <f>B5+B10</f>
-        <v>4067.4362313333859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+        <v>3990.1516474206351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>0.08</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <f>$B$11*B13</f>
-        <v>325.39489850667087</v>
+        <v>319.21213179365083</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>0.15</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <f>$B$11*B14</f>
-        <v>610.11543470000788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+        <v>598.52274711309519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <f>B11*(1+B13+B14)</f>
-        <v>5002.9465645400642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+        <v>4907.886526327381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0.3</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <f>B17*B15</f>
-        <v>1500.8839693620191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+        <v>1472.3659578982142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <f>B15*(1+B17)</f>
-        <v>6503.8305339020835</v>
+        <v>6380.2524842255953</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>0.1</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <f>B18*B19</f>
-        <v>650.38305339020837</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+        <v>638.02524842255957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <f>B18*(1+B19)</f>
-        <v>7154.2135872922927</v>
+        <v>7018.2777326481555</v>
       </c>
     </row>
   </sheetData>
